--- a/assign.xlsx
+++ b/assign.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,31 +16,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> browser  Chrome</t>
-  </si>
-  <si>
-    <t>user name admin</t>
-  </si>
-  <si>
-    <t>password 12345</t>
-  </si>
-  <si>
-    <t>URL http://localhost:8888/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Qspiders</t>
+  </si>
+  <si>
+    <t>QSpkphb</t>
+  </si>
+  <si>
+    <t>Rathish</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>rathish@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>VTiger crm is used to store all the types of data of different customers</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>QspKphb</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>rakesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>123452@efaxsend.com</t>
+  </si>
+  <si>
+    <t>RameshS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +137,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,41 +455,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>6305946245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
